--- a/data/trans_camb/P10_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P10_3-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 2,52</t>
+          <t>-2,39; 2,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,88</t>
+          <t>-2,19; 2,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,95</t>
+          <t>-1,49; 1,55</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,5%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,33; 159,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,83; 183,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,41; 100,03</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 6,18</t>
+          <t>-6,73; 11,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 3,43</t>
+          <t>-5,02; 6,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,37</t>
+          <t>-4,73; 5,57</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,95%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,56%</t>
+          <t>8,07%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-75,26; 256,43</t>
+          <t>-78,58; 432,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,73; 98,12</t>
+          <t>-68,14; 307,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,16; 92,47</t>
+          <t>-61,38; 181,01</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,22</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 6,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 6,21</t>
+          <t>-10,43; 8,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 4,3</t>
+          <t>-5,44; 4,34</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,59%</t>
+          <t>-9,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,1%</t>
+          <t>-8,71%</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,59; 329,07</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,18</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,89</t>
+          <t>-3,25; 4,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,29</t>
+          <t>-2,37; 3,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,58</t>
+          <t>-1,89; 2,89</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,8%</t>
+          <t>5,96%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-55,72; 115,84</t>
+          <t>-75,58; 287,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,42; 70,41</t>
+          <t>-58,13; 204,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 52,26</t>
+          <t>-49,55; 129,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P10_3-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,199 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.1078322038880836</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.09315790073303967</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.09988292348747339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 2,14</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 2,41</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 1,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.712709206078755</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.428595138009143</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.633891530054589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.760855766338027</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.070387276397653</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.31475761453961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.09503363130624728</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.07901411565068325</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.08619775907262392</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,73; 11,12</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 6,66</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; 5,57</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,21%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,26%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,07%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.5633677200843463</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.05464528996405385</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3148344389913002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-78,58; 432,33</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-68,14; 307,39</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-61,38; 181,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.940514226432522</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.212345256494237</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.823029366367151</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.90129706610316</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.16332216278498</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.418468351037019</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,43; 8,9</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,44; 4,34</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.09051608884104395</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.01087990294743497</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.05640535577714929</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-9,65%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-8,71%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.8115474744855349</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.712768435686466</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.6354369312756216</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>3.927483925965287</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>2.772667768830669</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.666602730019091</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +763,191 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.4818619339362409</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.07731168518310266</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 4,31</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 3,25</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 2,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr"/>
+      <c r="D17" s="5" t="n">
+        <v>-10.09432755476936</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-5.129654836605815</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>5,62%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>5,96%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+      <c r="D18" s="5" t="n">
+        <v>9.397803084651857</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.916881003825152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-75,58; 287,91</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-58,13; 204,86</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-49,55; 129,17</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr"/>
+      <c r="D19" s="6" t="n">
+        <v>-0.0945630736266571</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.03075080791112326</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.2724090344160601</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.06599668661659321</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.09211837340557319</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.055096309652905</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.538518047590418</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.960323956555712</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.482323741360396</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.924831823668669</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.843625861602329</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.08900863773867582</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.02127627029362014</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.02988310655417936</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.7378831588478727</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.6162677912927812</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.501388900882061</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>3.042370098018039</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.825627167778677</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.27387406655137</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +955,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
